--- a/xls/test.xlsx
+++ b/xls/test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Dpi</t>
   </si>
@@ -57,40 +57,46 @@
     <t>[T1.NAME#]</t>
   </si>
   <si>
+    <t>[T1.C_DISTR#]</t>
+  </si>
+  <si>
+    <t>[T1.TIN#]</t>
+  </si>
+  <si>
+    <t>[T1.C_STAN#]</t>
+  </si>
+  <si>
+    <t>[T1.KVED#]</t>
+  </si>
+  <si>
+    <t>[T2.DEF#]</t>
+  </si>
+  <si>
+    <t>[T2.ID#]</t>
+  </si>
+  <si>
+    <t>[T2.NAME#]</t>
+  </si>
+  <si>
+    <t>{T1.C_STAN_SUM}</t>
+  </si>
+  <si>
+    <t>{T2.ID_SUM}</t>
+  </si>
+  <si>
+    <t>{T1.TYPE_ID_SUM}</t>
+  </si>
+  <si>
+    <t>{N}</t>
+  </si>
+  <si>
+    <t>{NAME}</t>
+  </si>
+  <si>
+    <t>[T1.N#]</t>
+  </si>
+  <si>
     <t>[T1.TYPE_ID#]</t>
-  </si>
-  <si>
-    <t>[T1.ID#]</t>
-  </si>
-  <si>
-    <t>[T1.C_DISTR#]</t>
-  </si>
-  <si>
-    <t>[T1.TIN#]</t>
-  </si>
-  <si>
-    <t>[T1.C_STAN#]</t>
-  </si>
-  <si>
-    <t>[T1.KVED#]</t>
-  </si>
-  <si>
-    <t>[T2.DEF#]</t>
-  </si>
-  <si>
-    <t>[T2.ID#]</t>
-  </si>
-  <si>
-    <t>[T2.NAME#]</t>
-  </si>
-  <si>
-    <t>{T1.C_STAN_SUM}</t>
-  </si>
-  <si>
-    <t>{T2.ID_SUM}</t>
-  </si>
-  <si>
-    <t>{T1.TYPE_ID_SUM}</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,24 +473,24 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -500,18 +506,28 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -547,18 +563,18 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
